--- a/Esquemas_cont.xlsx
+++ b/Esquemas_cont.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7785" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nuevo Req" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>requerimiento No:</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Tipo de Transporte</t>
   </si>
   <si>
-    <t>Tipo de Contenedor</t>
-  </si>
-  <si>
     <t>Requiere Descargue</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>xxxxx</t>
   </si>
   <si>
-    <t>Cargo</t>
-  </si>
-  <si>
     <t>Nombre SISO</t>
   </si>
   <si>
@@ -205,6 +199,21 @@
   </si>
   <si>
     <t>nombre cliente</t>
+  </si>
+  <si>
+    <t>Contenedor</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Recargo Transporte</t>
+  </si>
+  <si>
+    <t>Remision N°</t>
   </si>
 </sst>
 </file>
@@ -584,17 +593,17 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="9" width="11" customWidth="1"/>
-    <col min="10" max="11" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="10.875" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="11" hidden="1"/>
   </cols>
   <sheetData>
@@ -659,12 +668,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="11.45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="11.45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -672,36 +681,36 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="11.45" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" ht="12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -709,16 +718,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -726,131 +735,138 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
       <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -858,38 +874,38 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -910,20 +926,20 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1</v>
       </c>
@@ -949,12 +965,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="11.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -969,115 +985,121 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="22.8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1085,146 +1107,152 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1232,78 +1260,78 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
         <v>48</v>
       </c>
-      <c r="H22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>

--- a/Esquemas_cont.xlsx
+++ b/Esquemas_cont.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="Nuevo Req" sheetId="1" r:id="rId1"/>
@@ -247,7 +247,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +257,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -310,6 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -703,10 +710,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -720,13 +728,14 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -740,8 +749,11 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="13" t="s">
         <v>22</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>61</v>
@@ -756,9 +768,6 @@
         <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -925,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -991,7 +1000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
